--- a/plots/ml_description_by_XAI.xlsx
+++ b/plots/ml_description_by_XAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20716396-CB0A-4780-97A7-3A17FC32F56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C4026D-1D1F-4449-8128-508161724D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2235" windowWidth="29040" windowHeight="15720" xr2:uid="{AD88E027-4A8B-4C2D-916D-1C1AE34F86AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{AD88E027-4A8B-4C2D-916D-1C1AE34F86AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -147,6 +147,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+      <color rgb="FFDAE3F3"/>
+      <color rgb="FF8FAADC"/>
+      <color rgb="FF3F7099"/>
+      <color rgb="FF375DA1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -165,69 +174,14 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>How well is ML pipeline described?</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1320" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -250,7 +204,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="DAE3F3">
+                <a:alpha val="69804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -265,7 +221,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-7088-41D4-999D-52B3866BAACB}"/>
+                  <c16:uniqueId val="{00000000-9F25-4E5A-98F7-ABB9552FD850}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -275,7 +231,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7088-41D4-999D-52B3866BAACB}"/>
+                  <c16:uniqueId val="{00000001-9F25-4E5A-98F7-ABB9552FD850}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -285,7 +241,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7088-41D4-999D-52B3866BAACB}"/>
+                  <c16:uniqueId val="{00000002-9F25-4E5A-98F7-ABB9552FD850}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -301,7 +257,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -423,7 +379,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7088-41D4-999D-52B3866BAACB}"/>
+              <c16:uniqueId val="{00000003-9F25-4E5A-98F7-ABB9552FD850}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -443,7 +399,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="8FAADC">
+                <a:alpha val="69804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -464,7 +422,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -586,7 +544,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7088-41D4-999D-52B3866BAACB}"/>
+              <c16:uniqueId val="{00000004-9F25-4E5A-98F7-ABB9552FD850}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -606,7 +564,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="4472C4">
+                <a:alpha val="69804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -627,7 +587,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -749,7 +709,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7088-41D4-999D-52B3866BAACB}"/>
+              <c16:uniqueId val="{00000005-9F25-4E5A-98F7-ABB9552FD850}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -796,7 +756,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -825,20 +785,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -855,7 +801,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -897,7 +843,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -962,39 +908,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
 </cs:colorStyle>
 </file>
 
@@ -1507,23 +1422,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>443865</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>316230</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>658041</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35107</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF69BCB-D1DB-4061-87E8-628094FEF198}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927E2E3D-E564-4BF8-BF4D-89A65951FAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,9 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14ABB07-91B0-4AFE-8BDC-5D7C1178937B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2025,7 +1938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2048,7 +1961,6 @@
     <sortCondition ref="E2:E11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2056,10 +1968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331A59CA-E494-403A-B8F5-DED13FF4EED3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>